--- a/data/Income Receivables (IN).xlsx
+++ b/data/Income Receivables (IN).xlsx
@@ -398,14 +398,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Issue Date</v>
+        <v>Date</v>
       </c>
       <c r="B1" t="str">
         <v>Invoice/Receipt Number</v>
@@ -638,9 +638,56 @@
         <v>Credit Card</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2023-03-15</v>
+      </c>
+      <c r="B6" t="str">
+        <v>INV052</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Tech Enterprise</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Project X</v>
+      </c>
+      <c r="E6" t="str">
+        <v>200</v>
+      </c>
+      <c r="F6" t="str">
+        <v>30</v>
+      </c>
+      <c r="G6" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="H6" t="str">
+        <v>6000</v>
+      </c>
+      <c r="I6" t="str">
+        <v>1200</v>
+      </c>
+      <c r="J6" t="str">
+        <v>7200</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="L6" t="str">
+        <v>2023-03-20</v>
+      </c>
+      <c r="M6" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="N6" t="str">
+        <v>Receipt</v>
+      </c>
+      <c r="O6" t="str">
+        <v>Bank Transfer</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O6"/>
   </ignoredErrors>
 </worksheet>
 </file>